--- a/molecules-lists/lysine_carnitine_intermediates.xlsx
+++ b/molecules-lists/lysine_carnitine_intermediates.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\adhoc-data-processing-pipeline\molecules-lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tm6\Documents\GitHub\adhoc-data-processing-pipeline\molecules-lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CB793D-C73A-4C11-9ACF-2B0CA1FE9298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="1215" windowWidth="17535" windowHeight="11835" xr2:uid="{A0CBF686-1AFA-410E-ACF4-96BD571F9D29}"/>
+    <workbookView xWindow="10050" yWindow="1215" windowWidth="17535" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,9 +82,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -96,12 +95,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,12 +121,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,136 +443,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F501CA13-1C0F-4E9C-BBF7-46EBD36EE286}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1">
+        <v>149.05105599999999</v>
+      </c>
+      <c r="D1" s="2">
         <v>149.051049291</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
+        <v>398.13723800000002</v>
+      </c>
+      <c r="D2" s="2">
         <v>399.14506356599998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
+        <v>384.12158199999999</v>
+      </c>
+      <c r="D3" s="2">
         <v>384.12158847000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
+        <v>135.03540000000001</v>
+      </c>
+      <c r="D4" s="2">
         <v>135.035399227</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
+        <v>146.10552999999999</v>
+      </c>
+      <c r="D5" s="2">
         <v>146.10552769899999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
+        <v>188.15248099999999</v>
+      </c>
+      <c r="D6" s="2">
         <v>188.15247789399999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
+        <v>205.15521799999999</v>
+      </c>
+      <c r="D7" s="2">
         <v>205.155217548</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
+        <v>130.122635</v>
+      </c>
+      <c r="D8" s="2">
         <v>130.123189139</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
+        <v>145.110275</v>
+      </c>
+      <c r="D9" s="2">
         <v>145.11027872899999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
+        <v>161.10519400000001</v>
+      </c>
+      <c r="D10" s="2">
         <v>162.113018383</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
+        <v>203.11575300000001</v>
+      </c>
+      <c r="D11" s="2">
         <v>204.12358306900001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
+        <v>282.25589000000002</v>
+      </c>
+      <c r="D12" s="2">
         <v>282.255880332</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
+        <v>256.24023399999999</v>
+      </c>
+      <c r="D13" s="2">
         <v>256.240230268</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
+        <v>280.24023399999999</v>
+      </c>
+      <c r="D14" s="2">
         <v>280.240230268</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
+        <v>278.22457900000001</v>
+      </c>
+      <c r="D15" s="2">
         <v>278.22458020400001</v>
       </c>
     </row>
